--- a/output/xlsx/UC008 - Registrar Autorização de Pagamento--GT-.xlsx
+++ b/output/xlsx/UC008 - Registrar Autorização de Pagamento--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC008 - Registrar Autorização de Pagamento--GT-.xlsx
+++ b/output/xlsx/UC008 - Registrar Autorização de Pagamento--GT-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -119,7 +119,7 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>SYSTEM Verifica que já existe um número de AP (considerando também o mesmo exercício) registrado na base de dados; e Interrompe a operação e exibe mensagem de erro (MSG210 - Número da autorização de pagamento já existe.) para o usuário.</t>
+    <t>SYSTEM Verifica que já existe um número de AP (considerando também o mesmo exercício) registrado na base de dados; e Interrompe a operação e exibe mensagem de erro (MSG210 - Número da autorização de pagamento já existe) para o usuário.</t>
   </si>
 </sst>
 </file>
